--- a/2.Excel/hands-on/6.Funcoes_Mercado/14.Exercicios_finais/1.Trancamento_Parcial.xlsx
+++ b/2.Excel/hands-on/6.Funcoes_Mercado/14.Exercicios_finais/1.Trancamento_Parcial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Projetos para Github\Hashtag\2.Excel\hands-on\6.Funcoes_Mercado\14.Exercicios_finais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC6B058-18D2-4A88-81FF-B62FE83A71A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCFCEB1-AA36-4C1C-9D2D-05C9FECB50B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="132" windowWidth="10800" windowHeight="12792" tabRatio="862" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12240" yWindow="132" windowWidth="10800" windowHeight="12792" tabRatio="862" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Início" sheetId="1" r:id="rId1"/>
@@ -18217,8 +18217,8 @@
   </sheetPr>
   <dimension ref="B1:I20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -18453,7 +18453,10 @@
       <c r="G12" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="H12" s="94"/>
+      <c r="H12" s="94">
+        <f ca="1">OFFSET(B8,MATCH(H10,B9:B20,0),MATCH(H9,C8:E8,0))</f>
+        <v>512038</v>
+      </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="36" t="s">
@@ -18610,7 +18613,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691EC2E3-E9BC-4F88-BC20-9BC4D7BDFAEB}">
   <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>

--- a/2.Excel/hands-on/6.Funcoes_Mercado/14.Exercicios_finais/1.Trancamento_Parcial.xlsx
+++ b/2.Excel/hands-on/6.Funcoes_Mercado/14.Exercicios_finais/1.Trancamento_Parcial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Projetos para Github\Hashtag\2.Excel\hands-on\6.Funcoes_Mercado\14.Exercicios_finais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCFCEB1-AA36-4C1C-9D2D-05C9FECB50B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE87928-58BB-42BF-8D9A-5B567F644C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="132" windowWidth="10800" windowHeight="12792" tabRatio="862" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12240" yWindow="132" windowWidth="10800" windowHeight="12792" tabRatio="862" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Início" sheetId="1" r:id="rId1"/>
@@ -949,7 +949,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1390,17 +1390,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1409,7 +1398,7 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1615,8 +1604,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="8" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4518,15 +4505,15 @@
       <c r="B3" s="93" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="93" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -5885,10 +5872,10 @@
     <row r="2" spans="2:14" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="104"/>
+      <c r="C8" s="102"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="19" t="s">
@@ -18217,7 +18204,7 @@
   </sheetPr>
   <dimension ref="B1:I20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -18613,8 +18600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691EC2E3-E9BC-4F88-BC20-9BC4D7BDFAEB}">
   <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -18670,7 +18657,10 @@
       <c r="G2" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="51"/>
+      <c r="H2" s="51">
+        <f>IFERROR(VLOOKUP(G2,A:E,5,0),IFERROR(VLOOKUP(G2,B:E,4,0),VLOOKUP(G2,C:E,3,0)))</f>
+        <v>1500</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="52" t="s">
@@ -18687,7 +18677,10 @@
       <c r="G3" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="H3" s="101"/>
+      <c r="H3" s="51">
+        <f t="shared" ref="H3:H9" si="0">IFERROR(VLOOKUP(G3,A:E,5,0),IFERROR(VLOOKUP(G3,B:E,4,0),VLOOKUP(G3,C:E,3,0)))</f>
+        <v>1750</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="50" t="s">
@@ -18704,7 +18697,10 @@
       <c r="G4" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="51">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="52" t="s">
@@ -18725,7 +18721,10 @@
       <c r="G5" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="H5" s="101"/>
+      <c r="H5" s="51">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="50" t="s">
@@ -18744,7 +18743,10 @@
       <c r="G6" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="100"/>
+      <c r="H6" s="51">
+        <f t="shared" si="0"/>
+        <v>2300</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="52" t="s">
@@ -18761,7 +18763,10 @@
       <c r="G7" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="101"/>
+      <c r="H7" s="51">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="50" t="s">
@@ -18778,7 +18783,10 @@
       <c r="G8" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="100"/>
+      <c r="H8" s="51">
+        <f t="shared" si="0"/>
+        <v>2600</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="52" t="s">
@@ -18799,7 +18807,10 @@
       <c r="G9" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="101"/>
+      <c r="H9" s="51">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="50" t="s">

--- a/2.Excel/hands-on/6.Funcoes_Mercado/14.Exercicios_finais/1.Trancamento_Parcial.xlsx
+++ b/2.Excel/hands-on/6.Funcoes_Mercado/14.Exercicios_finais/1.Trancamento_Parcial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Projetos para Github\Hashtag\2.Excel\hands-on\6.Funcoes_Mercado\14.Exercicios_finais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE87928-58BB-42BF-8D9A-5B567F644C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434162B2-41CF-41F3-8631-65C8C345C5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="132" windowWidth="10800" windowHeight="12792" tabRatio="862" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12240" yWindow="132" windowWidth="10800" windowHeight="12792" tabRatio="862" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Início" sheetId="1" r:id="rId1"/>
@@ -18600,7 +18600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691EC2E3-E9BC-4F88-BC20-9BC4D7BDFAEB}">
   <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -20055,7 +20055,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B6:J37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -20107,9 +20109,18 @@
       <c r="D7" s="9">
         <v>12320</v>
       </c>
-      <c r="E7" s="98"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="99"/>
+      <c r="E7" s="98">
+        <f>IF(C7=$I$7,$J$7,IF(C7=$I$8,$J$8,$J$9))*D7+D7</f>
+        <v>17248</v>
+      </c>
+      <c r="F7" s="9">
+        <f>VLOOKUP(C7,$I$7:$J$9,2,0)*D7+D7</f>
+        <v>17248</v>
+      </c>
+      <c r="G7" s="99">
+        <f>INDEX($J$7:$J$9,MATCH(C7,$I$7:$I$9,))*D7+D7</f>
+        <v>17248</v>
+      </c>
       <c r="I7" s="8" t="s">
         <v>79</v>
       </c>
@@ -20127,9 +20138,18 @@
       <c r="D8" s="9">
         <v>1600</v>
       </c>
-      <c r="E8" s="98"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="99"/>
+      <c r="E8" s="98">
+        <f t="shared" ref="E8:E37" si="0">IF(C8=$I$7,$J$7,IF(C8=$I$8,$J$8,$J$9))*D8+D8</f>
+        <v>1680</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" ref="F8:F37" si="1">VLOOKUP(C8,$I$7:$J$9,2,0)*D8+D8</f>
+        <v>1680</v>
+      </c>
+      <c r="G8" s="99">
+        <f t="shared" ref="G8:G37" si="2">INDEX($J$7:$J$9,MATCH(C8,$I$7:$I$9,))*D8+D8</f>
+        <v>1680</v>
+      </c>
       <c r="I8" s="8" t="s">
         <v>81</v>
       </c>
@@ -20147,9 +20167,18 @@
       <c r="D9" s="9">
         <v>12320</v>
       </c>
-      <c r="E9" s="98"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="99"/>
+      <c r="E9" s="98">
+        <f t="shared" si="0"/>
+        <v>17248</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="1"/>
+        <v>17248</v>
+      </c>
+      <c r="G9" s="99">
+        <f t="shared" si="2"/>
+        <v>17248</v>
+      </c>
       <c r="I9" s="8" t="s">
         <v>80</v>
       </c>
@@ -20167,9 +20196,18 @@
       <c r="D10" s="9">
         <v>2000</v>
       </c>
-      <c r="E10" s="98"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="99"/>
+      <c r="E10" s="98">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="1"/>
+        <v>2100</v>
+      </c>
+      <c r="G10" s="99">
+        <f t="shared" si="2"/>
+        <v>2100</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
@@ -20181,9 +20219,18 @@
       <c r="D11" s="9">
         <v>2000</v>
       </c>
-      <c r="E11" s="98"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="99"/>
+      <c r="E11" s="98">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="1"/>
+        <v>2100</v>
+      </c>
+      <c r="G11" s="99">
+        <f t="shared" si="2"/>
+        <v>2100</v>
+      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
@@ -20195,9 +20242,18 @@
       <c r="D12" s="9">
         <v>4650</v>
       </c>
-      <c r="E12" s="98"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="99"/>
+      <c r="E12" s="98">
+        <f t="shared" si="0"/>
+        <v>5347.5</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="1"/>
+        <v>5347.5</v>
+      </c>
+      <c r="G12" s="99">
+        <f t="shared" si="2"/>
+        <v>5347.5</v>
+      </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
@@ -20209,9 +20265,18 @@
       <c r="D13" s="9">
         <v>8100</v>
       </c>
-      <c r="E13" s="98"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="99"/>
+      <c r="E13" s="98">
+        <f t="shared" si="0"/>
+        <v>11340</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="1"/>
+        <v>11340</v>
+      </c>
+      <c r="G13" s="99">
+        <f t="shared" si="2"/>
+        <v>11340</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
@@ -20223,9 +20288,18 @@
       <c r="D14" s="9">
         <v>2850</v>
       </c>
-      <c r="E14" s="98"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="99"/>
+      <c r="E14" s="98">
+        <f t="shared" si="0"/>
+        <v>3277.5</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="1"/>
+        <v>3277.5</v>
+      </c>
+      <c r="G14" s="99">
+        <f t="shared" si="2"/>
+        <v>3277.5</v>
+      </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
@@ -20237,9 +20311,18 @@
       <c r="D15" s="9">
         <v>8100</v>
       </c>
-      <c r="E15" s="98"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="99"/>
+      <c r="E15" s="98">
+        <f t="shared" si="0"/>
+        <v>11340</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="1"/>
+        <v>11340</v>
+      </c>
+      <c r="G15" s="99">
+        <f t="shared" si="2"/>
+        <v>11340</v>
+      </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
@@ -20251,9 +20334,18 @@
       <c r="D16" s="9">
         <v>8100</v>
       </c>
-      <c r="E16" s="98"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="99"/>
+      <c r="E16" s="98">
+        <f t="shared" si="0"/>
+        <v>11340</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" si="1"/>
+        <v>11340</v>
+      </c>
+      <c r="G16" s="99">
+        <f t="shared" si="2"/>
+        <v>11340</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
@@ -20265,9 +20357,18 @@
       <c r="D17" s="9">
         <v>2000</v>
       </c>
-      <c r="E17" s="98"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="99"/>
+      <c r="E17" s="98">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="1"/>
+        <v>2100</v>
+      </c>
+      <c r="G17" s="99">
+        <f t="shared" si="2"/>
+        <v>2100</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
@@ -20279,9 +20380,18 @@
       <c r="D18" s="9">
         <v>7200</v>
       </c>
-      <c r="E18" s="98"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="99"/>
+      <c r="E18" s="98">
+        <f t="shared" si="0"/>
+        <v>10080</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" si="1"/>
+        <v>10080</v>
+      </c>
+      <c r="G18" s="99">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
@@ -20293,9 +20403,18 @@
       <c r="D19" s="9">
         <v>8100</v>
       </c>
-      <c r="E19" s="98"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="99"/>
+      <c r="E19" s="98">
+        <f t="shared" si="0"/>
+        <v>11340</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="1"/>
+        <v>11340</v>
+      </c>
+      <c r="G19" s="99">
+        <f t="shared" si="2"/>
+        <v>11340</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
@@ -20307,9 +20426,18 @@
       <c r="D20" s="9">
         <v>2850</v>
       </c>
-      <c r="E20" s="98"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="99"/>
+      <c r="E20" s="98">
+        <f t="shared" si="0"/>
+        <v>3277.5</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="1"/>
+        <v>3277.5</v>
+      </c>
+      <c r="G20" s="99">
+        <f t="shared" si="2"/>
+        <v>3277.5</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
@@ -20321,9 +20449,18 @@
       <c r="D21" s="9">
         <v>2850</v>
       </c>
-      <c r="E21" s="98"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="99"/>
+      <c r="E21" s="98">
+        <f t="shared" si="0"/>
+        <v>3277.5</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="1"/>
+        <v>3277.5</v>
+      </c>
+      <c r="G21" s="99">
+        <f t="shared" si="2"/>
+        <v>3277.5</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
@@ -20335,9 +20472,18 @@
       <c r="D22" s="9">
         <v>2000</v>
       </c>
-      <c r="E22" s="98"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="99"/>
+      <c r="E22" s="98">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" si="1"/>
+        <v>2100</v>
+      </c>
+      <c r="G22" s="99">
+        <f t="shared" si="2"/>
+        <v>2100</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
@@ -20349,9 +20495,18 @@
       <c r="D23" s="9">
         <v>3700</v>
       </c>
-      <c r="E23" s="98"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="99"/>
+      <c r="E23" s="98">
+        <f t="shared" si="0"/>
+        <v>4255</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="1"/>
+        <v>4255</v>
+      </c>
+      <c r="G23" s="99">
+        <f t="shared" si="2"/>
+        <v>4255</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
@@ -20363,9 +20518,18 @@
       <c r="D24" s="9">
         <v>7200</v>
       </c>
-      <c r="E24" s="98"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="99"/>
+      <c r="E24" s="98">
+        <f t="shared" si="0"/>
+        <v>10080</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" si="1"/>
+        <v>10080</v>
+      </c>
+      <c r="G24" s="99">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
@@ -20377,9 +20541,18 @@
       <c r="D25" s="9">
         <v>3700</v>
       </c>
-      <c r="E25" s="98"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="99"/>
+      <c r="E25" s="98">
+        <f t="shared" si="0"/>
+        <v>4255</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="1"/>
+        <v>4255</v>
+      </c>
+      <c r="G25" s="99">
+        <f t="shared" si="2"/>
+        <v>4255</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
@@ -20391,9 +20564,18 @@
       <c r="D26" s="9">
         <v>8100</v>
       </c>
-      <c r="E26" s="98"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="99"/>
+      <c r="E26" s="98">
+        <f t="shared" si="0"/>
+        <v>11340</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" si="1"/>
+        <v>11340</v>
+      </c>
+      <c r="G26" s="99">
+        <f t="shared" si="2"/>
+        <v>11340</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
@@ -20405,9 +20587,18 @@
       <c r="D27" s="9">
         <v>2850</v>
       </c>
-      <c r="E27" s="98"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="99"/>
+      <c r="E27" s="98">
+        <f t="shared" si="0"/>
+        <v>3277.5</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" si="1"/>
+        <v>3277.5</v>
+      </c>
+      <c r="G27" s="99">
+        <f t="shared" si="2"/>
+        <v>3277.5</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
@@ -20419,9 +20610,18 @@
       <c r="D28" s="9">
         <v>7200</v>
       </c>
-      <c r="E28" s="98"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="99"/>
+      <c r="E28" s="98">
+        <f t="shared" si="0"/>
+        <v>10080</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" si="1"/>
+        <v>10080</v>
+      </c>
+      <c r="G28" s="99">
+        <f t="shared" si="2"/>
+        <v>10080</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
@@ -20433,9 +20633,18 @@
       <c r="D29" s="9">
         <v>1600</v>
       </c>
-      <c r="E29" s="98"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="99"/>
+      <c r="E29" s="98">
+        <f t="shared" si="0"/>
+        <v>1680</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="1"/>
+        <v>1680</v>
+      </c>
+      <c r="G29" s="99">
+        <f t="shared" si="2"/>
+        <v>1680</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
@@ -20447,9 +20656,18 @@
       <c r="D30" s="9">
         <v>8100</v>
       </c>
-      <c r="E30" s="98"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="99"/>
+      <c r="E30" s="98">
+        <f t="shared" si="0"/>
+        <v>11340</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" si="1"/>
+        <v>11340</v>
+      </c>
+      <c r="G30" s="99">
+        <f t="shared" si="2"/>
+        <v>11340</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
@@ -20461,9 +20679,18 @@
       <c r="D31" s="9">
         <v>9450</v>
       </c>
-      <c r="E31" s="98"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="99"/>
+      <c r="E31" s="98">
+        <f t="shared" si="0"/>
+        <v>13230</v>
+      </c>
+      <c r="F31" s="9">
+        <f t="shared" si="1"/>
+        <v>13230</v>
+      </c>
+      <c r="G31" s="99">
+        <f t="shared" si="2"/>
+        <v>13230</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
@@ -20475,9 +20702,18 @@
       <c r="D32" s="9">
         <v>4650</v>
       </c>
-      <c r="E32" s="98"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="99"/>
+      <c r="E32" s="98">
+        <f t="shared" si="0"/>
+        <v>5347.5</v>
+      </c>
+      <c r="F32" s="9">
+        <f t="shared" si="1"/>
+        <v>5347.5</v>
+      </c>
+      <c r="G32" s="99">
+        <f t="shared" si="2"/>
+        <v>5347.5</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
@@ -20489,9 +20725,18 @@
       <c r="D33" s="9">
         <v>3700</v>
       </c>
-      <c r="E33" s="98"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="99"/>
+      <c r="E33" s="98">
+        <f t="shared" si="0"/>
+        <v>4255</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" si="1"/>
+        <v>4255</v>
+      </c>
+      <c r="G33" s="99">
+        <f t="shared" si="2"/>
+        <v>4255</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
@@ -20503,9 +20748,18 @@
       <c r="D34" s="9">
         <v>8100</v>
       </c>
-      <c r="E34" s="98"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="99"/>
+      <c r="E34" s="98">
+        <f t="shared" si="0"/>
+        <v>11340</v>
+      </c>
+      <c r="F34" s="9">
+        <f t="shared" si="1"/>
+        <v>11340</v>
+      </c>
+      <c r="G34" s="99">
+        <f t="shared" si="2"/>
+        <v>11340</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
@@ -20517,9 +20771,18 @@
       <c r="D35" s="9">
         <v>12320</v>
       </c>
-      <c r="E35" s="98"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="99"/>
+      <c r="E35" s="98">
+        <f t="shared" si="0"/>
+        <v>17248</v>
+      </c>
+      <c r="F35" s="9">
+        <f t="shared" si="1"/>
+        <v>17248</v>
+      </c>
+      <c r="G35" s="99">
+        <f t="shared" si="2"/>
+        <v>17248</v>
+      </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
@@ -20531,9 +20794,18 @@
       <c r="D36" s="9">
         <v>12320</v>
       </c>
-      <c r="E36" s="98"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="99"/>
+      <c r="E36" s="98">
+        <f t="shared" si="0"/>
+        <v>17248</v>
+      </c>
+      <c r="F36" s="9">
+        <f t="shared" si="1"/>
+        <v>17248</v>
+      </c>
+      <c r="G36" s="99">
+        <f t="shared" si="2"/>
+        <v>17248</v>
+      </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
@@ -20545,9 +20817,18 @@
       <c r="D37" s="9">
         <v>4650</v>
       </c>
-      <c r="E37" s="98"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="99"/>
+      <c r="E37" s="98">
+        <f t="shared" si="0"/>
+        <v>5347.5</v>
+      </c>
+      <c r="F37" s="9">
+        <f t="shared" si="1"/>
+        <v>5347.5</v>
+      </c>
+      <c r="G37" s="99">
+        <f t="shared" si="2"/>
+        <v>5347.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/2.Excel/hands-on/6.Funcoes_Mercado/14.Exercicios_finais/1.Trancamento_Parcial.xlsx
+++ b/2.Excel/hands-on/6.Funcoes_Mercado/14.Exercicios_finais/1.Trancamento_Parcial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Projetos para Github\Hashtag\2.Excel\hands-on\6.Funcoes_Mercado\14.Exercicios_finais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434162B2-41CF-41F3-8631-65C8C345C5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885E8722-6FEC-4872-B668-65FB3518B9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="132" windowWidth="10800" windowHeight="12792" tabRatio="862" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12240" yWindow="132" windowWidth="10800" windowHeight="12792" tabRatio="862" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Início" sheetId="1" r:id="rId1"/>
@@ -4482,8 +4482,8 @@
   </sheetPr>
   <dimension ref="B2:D4"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4505,15 +4505,27 @@
       <c r="B3" s="93" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
+      <c r="C3" s="100">
+        <f ca="1">COUNTIFS(INDIRECT($B3&amp;"!B:B"),'Relatório Matrículas'!C$2)</f>
+        <v>3</v>
+      </c>
+      <c r="D3" s="100">
+        <f ca="1">COUNTIFS(INDIRECT($B3&amp;"!B:B"),'Relatório Matrículas'!D$2)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="93" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
+      <c r="C4" s="100">
+        <f ca="1">COUNTIFS(INDIRECT($B4&amp;"!B:B"),'Relatório Matrículas'!C$2)</f>
+        <v>5</v>
+      </c>
+      <c r="D4" s="100">
+        <f ca="1">COUNTIFS(INDIRECT($B4&amp;"!B:B"),'Relatório Matrículas'!D$2)</f>
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -20055,7 +20067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B6:J37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="F10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
